--- a/estrutura_organizacional.xlsx
+++ b/estrutura_organizacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0281234d13572a04/Doutorado/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_AD4D361C20488DEA4E38A0F3941E4A8C5BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1A6BAA0-9DC9-4A66-9687-1192DCB866C1}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_AD4D361C20488DEA4E38A0F3941E4A8C5BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC07EC5A-ABDB-482A-A3DA-E7EB0C61F8AD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Estrutura</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Org_Size</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A31B46-9609-43BD-862E-87DCDA587683}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H1" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,9 +392,11 @@
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,8 +415,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -427,8 +441,14 @@
       <c r="F2" s="2">
         <v>6</v>
       </c>
+      <c r="G2" s="2">
+        <v>100</v>
+      </c>
+      <c r="H2" s="2">
+        <v>200</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -445,6 +465,12 @@
         <v>3</v>
       </c>
       <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
